--- a/moveLog.xlsx
+++ b/moveLog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C227"/>
+  <dimension ref="A1:C554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,12 +451,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TY LUCKY.tif</t>
+          <t>ADRIATIC ID_2.tif</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/T/TY LUCKY_D7TF</t>
+          <t>ADRIATIC ID_VRFP6</t>
         </is>
       </c>
     </row>
@@ -466,12 +466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHANG PING.tif</t>
+          <t>ANA-M.tif</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG PING_XUFB8</t>
+          <t>ANA-M_9HA2470</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CAPTAIN T.tif</t>
+          <t>APOLLO MIYO.tif</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CAPTAIN T_V7MV4</t>
+          <t>APOLLO MIYO_3EGX6</t>
         </is>
       </c>
     </row>
@@ -496,12 +496,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHANG HANG FAN HAI.tif</t>
+          <t>ARAWANA.tif</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">/Users/hongsi/Desktop/선박트리/C/CHANG HANG FAN HAI_BIAF6 </t>
+          <t>ARAWANA_T2ZF4</t>
         </is>
       </c>
     </row>
@@ -511,12 +511,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CARINA (2020).pdf</t>
+          <t>ATALANTA.tif</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CARINA_D7MH</t>
+          <t>ATALANTA_V7PS3</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHANG LIAN HAI.tif</t>
+          <t>athena-1 (1).tif</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG LIAN HAI_9LY2646</t>
+          <t>ATHENA_A8UQ7</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CH CLARE(2012.05.15).tif</t>
+          <t>athena-1.tif</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CH CLARE_DSQT5</t>
+          <t>ATHENA_A8UQ7</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CANELO ARROW.tif</t>
+          <t>AURORA AMETHYST.tif</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CANELO ARROW_C6OM8</t>
+          <t>AURORA AMETHYST_DYCX</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHANG AN QUICK(N).tif</t>
+          <t>ACS DIAMOND(NEW).tif</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG AN QUICK_HP6480</t>
+          <t>ACS DIAMOND (NEW)_9VCF5</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHANG AN UNION.tif</t>
+          <t>ADRIATIC ID.tif</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG AN UNION_3FPF8</t>
+          <t>ADRIATIC ID_VRFP6</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHANCE STAR.tif</t>
+          <t>ADROR.tif</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANCE STAR_3FPF8</t>
+          <t>ADROR_DSOK2</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CH BELLA (P).tif</t>
+          <t>AEOLOS.tif</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CH BELLA(P)_DSQX5</t>
+          <t>AEOLOS_V7PS2</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CANES(2018.08.06).tif</t>
+          <t>AERO STAR.tif</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CANES_D.S.Q.W.8</t>
+          <t>AERO STAR_3ESH7</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CETUS.tif</t>
+          <t>AFRICAN ALBAATROSS.tif</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CETUS_DSNY7</t>
+          <t>AFRICAN ALBAATROSS_VRDQ4</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>M.V. CANELO ARROW.tif</t>
+          <t>African Jaguar.tif</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CANELO ARROW_C6OM8</t>
+          <t>AFRICAN JAGUAR_C6UF4</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CHANG AN REGAL.tif</t>
+          <t>AFRICAN KITE.tif</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG AN REGAL_3FLJ3</t>
+          <t>AFRICAN KITE_C6AM2</t>
         </is>
       </c>
     </row>
@@ -691,12 +691,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHANG DA217.tif</t>
+          <t>AFRICAN RAPTOR.tif</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG DA 217_V3IK</t>
+          <t>AFRICAN RAPTOR_C6BR4</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>C.S.PRINCESS.pdf</t>
+          <t>AFRICAN ROBIN.tif</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/C.S.PRINCESS_3EYW3</t>
+          <t>AFRICAN ROBIN_C6XI8</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHANG HAI.pdf</t>
+          <t>AFRICAN SWAN.tif</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG HAI_BUUM</t>
+          <t>AFRICAN SWAN_C6ZH7</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CAPETAN VASSILIS.tif</t>
+          <t>AGIOS NIKOLAOS(21.04).pdf</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CAPETAN VASSILIS_C6S2085</t>
+          <t>Agios Nikolaos_D5XR8</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CHANG DA 368.tif</t>
+          <t>AGRIA (2).tif</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG DA 368_V3QG7</t>
+          <t>AGRIA_9HA2575</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CARIBBEAN ID.tif</t>
+          <t>AGRIA.tif</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CARIBBEAN ID_VRYI8</t>
+          <t>AGRIA_9HA2575</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHANG AN QUICK.tif</t>
+          <t>AKTEA R.tif</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG AN QUICK_HP6480</t>
+          <t>AKTEA R_9HA2309</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHANG HONG.tif</t>
+          <t>ALALANTE.pdf</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG HONG_V3P2</t>
+          <t>ALALANTE_9HA3548</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CARIBBEAN FRONTIER.tif</t>
+          <t>ALAM AMAN 2.tif</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CARIBBEAN FRONTIER_S6GM9</t>
+          <t>ALAM AMAN 2_9MEP3</t>
         </is>
       </c>
     </row>
@@ -826,12 +826,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CARINA.pdf</t>
+          <t>ALAM SERI.tif</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CARINA_D7MH</t>
+          <t>Alam Seri_3FVL2</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CHANG HAI 19.pdf</t>
+          <t>ALAM SETIA.tif</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG HAI_BUUM</t>
+          <t>ALAM SETIA_9V2144</t>
         </is>
       </c>
     </row>
@@ -856,12 +856,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CHANG DA 217 (2012.06.25).tif</t>
+          <t>ALAM SINAR.tif</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG DA 217_V3IK</t>
+          <t>ALAM SINAR_9V2204</t>
         </is>
       </c>
     </row>
@@ -871,12 +871,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CLEANTEC.tif</t>
+          <t>ALBERTO TOPIC (2).tif</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CLEANTEC_VRFT6</t>
+          <t>ALBERTO TOPIC_V7LK7</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CH CLARE.tif</t>
+          <t>ALBERTO TOPIC.tif</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CH CLARE_DSQT5</t>
+          <t>ALBERTO TOPIC_V7LK7</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CHANGHAI.tif</t>
+          <t>ALETHINI.tif</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG HAI_BUUM</t>
+          <t>ALETHINI_V7TG4</t>
         </is>
       </c>
     </row>
@@ -916,12 +916,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CHANG AN SMART.tif</t>
+          <t>ALEXANDRIT.tif</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG AN SMART_3FBA3</t>
+          <t>ALEXANDRIT_CQGF</t>
         </is>
       </c>
     </row>
@@ -931,12 +931,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C. FRIEND.tif</t>
+          <t>ALEXANDROS 3 1-1.tif</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/C.FRIEND_DSNN8</t>
+          <t>ALEXANDROS 3_V7RR5</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CHALOTHORN NAREE.tif</t>
+          <t>ALEXANDROS 3 1-2.tif</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHALOTHORN NAREE_HSCT</t>
+          <t>ALEXANDROS 3_V7RR5</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CHANG MING.tif</t>
+          <t>ALICIA 8.pdf</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG MING_3FBY9</t>
+          <t>ALICIA 8_3EKL6</t>
         </is>
       </c>
     </row>
@@ -976,12 +976,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CABOT AVIVA.tif</t>
+          <t>ALICIA.tif</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CABOT AVIVA_INMAR</t>
+          <t>ALICIA_D5CD6</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CALY MANX.tif</t>
+          <t>ALKYONI SB 20161206.tif</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CALY MANX_2CQI6</t>
+          <t>ALKYONI SB_5BBT4</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C.S. STAR.tif</t>
+          <t>ALLIANCE NO.2 19.pdf</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/C.S. STAR_3FVA8</t>
+          <t>ALLIANCE NO.2_V3EM2</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CAPTAIN V. MAZURENKO.tif</t>
+          <t>ALLIANCE NO.2.pdf</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/Captain V. Mazurenko_A8TZ2</t>
+          <t>ALLIANCE NO.2_V3EM2</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>C.FRIEND.tif</t>
+          <t>ALPINE.pdf</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/C.FRIEND_DSNN8</t>
+          <t>ALPINE_V7IN5</t>
         </is>
       </c>
     </row>
@@ -1051,12 +1051,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CHANE NAVIGATOR.tif</t>
+          <t>ALPINE.tif</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANE NAVIGATOR_VRHG8</t>
+          <t>ALPINE_V7IN5</t>
         </is>
       </c>
     </row>
@@ -1066,12 +1066,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>C HANDY.tif</t>
+          <t>ALTAI.tif</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/C HANDY_V7VW8</t>
+          <t>ALTAI_D5BA4</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CHANG CHUAN.tif</t>
+          <t>AMAZING.tif</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG CHUAN_V3PD</t>
+          <t>AMAZING_9HA2330</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CEYLON BREEZE 201607.tif</t>
+          <t>AMAZING1.tif</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CEYLON BREEZE _4RDW</t>
+          <t>AMAZING_9HA2330</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CH CLARE (2).tif</t>
+          <t>AMBER BEVERLY.tif</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CH CLARE_DSQT5</t>
+          <t>AMBER BEVERLY_VRHK5</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CASTLE GATE.tif</t>
+          <t>AMBER VITA 1-1.tif</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CASTLEGATE_24NR2</t>
+          <t>AMBER VITA_9HJQ9</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CANARY.tif</t>
+          <t>AMBER VITA 1-2.tif</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CANARY_V7TG3</t>
+          <t>AMBER VITA_9HJQ9</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BAO HONG 9.tif</t>
+          <t>AMETRIN.tif</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO HONG 9_BKRW5</t>
+          <t>AMETRIN_A8YV9</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1171,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BAO XIANG.tif</t>
+          <t>AMGU.tif</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO XIANG_V3PJ2</t>
+          <t>AMGU_V3NS9</t>
         </is>
       </c>
     </row>
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BAOHONG 10.tif</t>
+          <t>AMOY DREAM.pdf</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO HONG 10_BKVU5</t>
+          <t>AMOY DREAM_VRHD5</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BALTIC ID.tif</t>
+          <t>AMOY PROGRESS.tif</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BALTIC ID_VRBC7</t>
+          <t>AMOY PROGRESS_VRIO3</t>
         </is>
       </c>
     </row>
@@ -1216,12 +1216,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BEI HAI.tif</t>
+          <t>AMP DIAMOND.tif</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BEIHAI_3FSI5</t>
+          <t>AMP DIAMOND_VRHU5</t>
         </is>
       </c>
     </row>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BAO RUI LING.pdf</t>
+          <t>AMS PEGASUS III.tif</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO RUI LING_BROZ</t>
+          <t>AMS PEGASUS III_3EWA8</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1246,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BAO HONG 8.tif</t>
+          <t>AN FENG8.tif</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO HONG 8_BKTD4</t>
+          <t>AN FENG 8_V3GZ</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BALABAN.tif</t>
+          <t>AN NING.tif</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BALABAN_TCTR5</t>
+          <t>AN NING_VREY6</t>
         </is>
       </c>
     </row>
@@ -1276,12 +1276,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BAO SUCCESS.tif</t>
+          <t>AN QING JIANG.tif</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO SUCCESS_9V7745</t>
+          <t>AN QING JIANG_BOKA</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BASIC BRAVE.pdf</t>
+          <t>AN SHUN 5.pdf</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/Basic Brave_3EVG4</t>
+          <t>AN SHUN 5_3FKR6</t>
         </is>
       </c>
     </row>
@@ -1306,12 +1306,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BAO HONG 9 20151210 (2).tif</t>
+          <t>ANACAPA LIGHT.tif</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO HONG 9_BKRW5</t>
+          <t>ANACAPA LIGHT_VRLE5</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BANGHAI  HOLD DROW201605.tif</t>
+          <t>ANANYA NAREE.tif</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BANGHAI_V3XJ2</t>
+          <t>ANANYA NAREE_9V9383</t>
         </is>
       </c>
     </row>
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BAO HONG 9 ( 2018.10.19).tif</t>
+          <t>ANASTASIA K.tif</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO HONG 9_BKRW5</t>
+          <t>ANASTASIA K_9HA2202</t>
         </is>
       </c>
     </row>
@@ -1351,12 +1351,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BANGHAI 201605.tif</t>
+          <t>ANCASH QUEEN.tif</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BANGHAI_V3XJ2</t>
+          <t>ANCASH QUEEN_3FLV4</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BAO HONG 9 20151210.tif</t>
+          <t>ANIMA.tif</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO HONG 9_BKRW5</t>
+          <t>ANIMA_5BQG4</t>
         </is>
       </c>
     </row>
@@ -1381,12 +1381,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BAO HE LING.tif</t>
+          <t>ANNA BO.tif</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO HE LING_BRJN</t>
+          <t>ANNA BO_HPGG</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BALTIC STEAMER.tif</t>
+          <t>ANNI SELMER (2).tif</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BALTIC STEAMER_V2FL5</t>
+          <t>ANNI SELMER_V7QR7</t>
         </is>
       </c>
     </row>
@@ -1411,12 +1411,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BAO LUCKY.tif</t>
+          <t>ANNI SELMER.tif</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AOLUCKY_3EKM2</t>
+          <t>ANNI SELMER_V7QR7</t>
         </is>
       </c>
     </row>
@@ -1426,12 +1426,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BAO RUI LING.tif</t>
+          <t>ANQUANZHOU 66 (2).tif</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO RUI LING_BROZ</t>
+          <t>ANQUANZHOU 66_SFXL5</t>
         </is>
       </c>
     </row>
@@ -1441,12 +1441,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BAO HONG 8.pdf</t>
+          <t>ANQUANZHOU 66.tif</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO HONG 8_BKTD4</t>
+          <t>ANQUANZHOU 66_SFXL5</t>
         </is>
       </c>
     </row>
@@ -1456,12 +1456,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BEIJING VENTURE.tif</t>
+          <t>ANTIGONI B.tif</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BEIJING VENTURE_VRGB8</t>
+          <t>ANTIGONI B_V7PU4</t>
         </is>
       </c>
     </row>
@@ -1471,12 +1471,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BASIC RELIANCE.tif</t>
+          <t>AOBA.tif</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/Basic Reliance_H9YA</t>
+          <t>AOBA_SPXK9</t>
         </is>
       </c>
     </row>
@@ -1486,12 +1486,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BALGARKA.tif</t>
+          <t>AOLI 6.tif</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BALGARKA_9HRD7</t>
+          <t>AOLI 6_VRIJ6</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BARANEE NAREE.tif</t>
+          <t>AOLUCKY.tif</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BARANEE NAREE_S6EP8</t>
+          <t>AOLUCKY_3EKM2</t>
         </is>
       </c>
     </row>
@@ -1516,12 +1516,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BASIC QUEEN.tif</t>
+          <t>AP DRZIC(CL).tif</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/Basic Queen_3FBF3</t>
+          <t>AP DRZIC_V7RA4</t>
         </is>
       </c>
     </row>
@@ -1531,12 +1531,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BAI HONG.tif</t>
+          <t>AP DRZIC.pdf</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAI HONG_XULU8</t>
+          <t>AP DRZIC_V7RA4</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BASIC BRAVE 19.pdf</t>
+          <t>AP DRZIC.tif</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/Basic Brave_3EVG4</t>
+          <t>AP DRZIC_V7RA4</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BANOS A.tif</t>
+          <t>APEX.tif</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BANOS A_V7PJ7</t>
+          <t>APEX_V7SA9</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BAO HONG 3 (2012.07.20).tif</t>
+          <t>APUANA D.tif</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO HONG 3_T3PS</t>
+          <t>APUANA D_ICQS</t>
         </is>
       </c>
     </row>
@@ -1591,12 +1591,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BAO NING LING.tif</t>
+          <t>AQUAROSA.tif</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO NING LING_BRJO</t>
+          <t>AQUAROSA_9HA2201</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>161105 BASIC PIONEER.tif</t>
+          <t>AQUATAURUS.pdf</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BASIC PIONEER_3EZZ4</t>
+          <t>AQUATAURUS_D5NG5</t>
         </is>
       </c>
     </row>
@@ -1621,12 +1621,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BAO HONG 10.tif</t>
+          <t>AQUITANIA.tif</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO HONG 10_BKVU5</t>
+          <t>AQUITANIA_MADG</t>
         </is>
       </c>
     </row>
@@ -1636,12 +1636,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BEKS MUNEVVER.tif</t>
+          <t>ARAGONIT(2).tif</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BEKS MUNEVVER_V7LL6</t>
+          <t>ARAGONIT_CQAJ</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BASIC PRINCESS.tif</t>
+          <t>ARAGONIT.tif</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BASIC PRINCESS_3EVW9</t>
+          <t>ARAGONIT_CQAJ</t>
         </is>
       </c>
     </row>
@@ -1666,12 +1666,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BELNOR.tif</t>
+          <t>ARAWANA.pdf</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BELNOR_9V8505</t>
+          <t>ARAWANA_T2ZF4</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BAO AN LING.tif</t>
+          <t>ARKLOW SPRAY (2).tif</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO AN LING_BRJK</t>
+          <t>Arklow Spray_EIOG8</t>
         </is>
       </c>
     </row>
@@ -1696,12 +1696,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Beacon SW.tif</t>
+          <t>ARKLOW SPRAY.tif</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/Beacon SW_3EMX3</t>
+          <t>Arklow Spray_EIOG8</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1711,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BAO FLOURISH.tif</t>
+          <t>AROMA.tif</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/B/BAO FLOURISH_VRJQ6</t>
+          <t>AROMA_VRFQ8</t>
         </is>
       </c>
     </row>
@@ -1726,12 +1726,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>WOOYANG CLOVER (2020).pdf</t>
+          <t>AS VARESIA.tif</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/W/WOOYANG CLOVER_3EVO6</t>
+          <t>AS VARESIA_A8YD9</t>
         </is>
       </c>
     </row>
@@ -1741,12 +1741,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>WOOYANG CLOVER.tif</t>
+          <t>AS VINCENTIA (2).tif</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/W/WOOYANG CLOVER_3EVO6</t>
+          <t>AS VINCENTIA_A8VV3</t>
         </is>
       </c>
     </row>
@@ -1756,12 +1756,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>WU CHANG HAI.tif</t>
+          <t>AS VINCENTIA.tif</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG HAI_BUUM</t>
+          <t>AS VINCENTIA_A8VV3</t>
         </is>
       </c>
     </row>
@@ -1771,12 +1771,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ARAWANA.tif</t>
+          <t>AS VIRGINIA (2).tif</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ARAWANA_T2ZF4</t>
+          <t>AS VIRGINIA_A8SO9</t>
         </is>
       </c>
     </row>
@@ -1786,12 +1786,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ANA-M.tif</t>
+          <t>AS VIRGINIA (3).tif</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ANA-M_9HA2470</t>
+          <t>AS VIRGINIA_A8SO9</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>APOLLO MIYO.tif</t>
+          <t>AS VIRGINIA.tif</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/APOLLO MIYO_3EGX6</t>
+          <t>AS VIRGINIA_A8SO9</t>
         </is>
       </c>
     </row>
@@ -1816,12 +1816,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>AURORA AMETHYST.tif</t>
+          <t>ASAHI MARU.tif</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AURORA AMETHYST_DYCX</t>
+          <t>ASAHI MARU_3FAZ2</t>
         </is>
       </c>
     </row>
@@ -1831,12 +1831,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>athena-1 (1).tif</t>
+          <t>ASAKA.tif</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ATHENA_A8UQ7</t>
+          <t>ASAKA_D7BR</t>
         </is>
       </c>
     </row>
@@ -1846,12 +1846,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ATALANTA.tif</t>
+          <t>ASIA EMERALD 2.tif</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ATALANTA_V7PS3</t>
+          <t>ASIA EMERALD 2_9V3242</t>
         </is>
       </c>
     </row>
@@ -1861,12 +1861,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ADRIATIC ID_2.tif</t>
+          <t>ASIA PEAR III.tif</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ADRIATIC ID_VRFP6</t>
+          <t>ASIA PEAR III_9V3192</t>
         </is>
       </c>
     </row>
@@ -1876,12 +1876,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>athena-1.tif</t>
+          <t>ASIA STAR.tif</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ATHENA_A8UQ7</t>
+          <t>ASIA STAR_T3MM</t>
         </is>
       </c>
     </row>
@@ -1891,12 +1891,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ARKLOW SPRAY.tif</t>
+          <t>ASIAN PROSPERITY.tif</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/Arklow Spray_EIOG8</t>
+          <t>ASIAN PROSPERITY_A8ZJ9</t>
         </is>
       </c>
     </row>
@@ -1906,12 +1906,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ALAM SETIA.tif</t>
+          <t>ASIAN SUMMIT.pdf</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALAM SETIA_9V2144</t>
+          <t>ASIAN SUMMIT_9V3659</t>
         </is>
       </c>
     </row>
@@ -1921,12 +1921,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ALEXANDROS 3 1-2.tif</t>
+          <t>ASIAN TRIUMPH.tif</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALEXANDROS 3_V7RR5</t>
+          <t>ASIAN TRIUMPH_9V9803</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ADROR.tif</t>
+          <t>ASIATIC.tif</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ADROR_DSOK2</t>
+          <t>ASIATIC_SVBN4</t>
         </is>
       </c>
     </row>
@@ -1951,12 +1951,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ASIAN SUMMIT.pdf</t>
+          <t>ASL ERA.tif</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ASIAN SUMMIT_9V3659</t>
+          <t>ASL ERA_V7A2053</t>
         </is>
       </c>
     </row>
@@ -1966,12 +1966,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ATLANTIC ADVENTURE.tif</t>
+          <t>ASTERIS.tif</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ATLANTIC ADVENTURE_3FTN2</t>
+          <t>ASTERIS_V7LN3</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ALICIA 8.pdf</t>
+          <t>ASTON TRADER 2.tif</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALICIA 8_3EKL6</t>
+          <t>ASTON TRADER 2_DUAV</t>
         </is>
       </c>
     </row>
@@ -1996,12 +1996,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ASIAN PROSPERITY.tif</t>
+          <t>ATALANTE.pdf</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ASIAN PROSPERITY_A8ZJ9</t>
+          <t>ATALANTE_9HA3548</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2011,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>AKTEA R.tif</t>
+          <t>ATALANTI.GR(21.04).pdf</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AKTEA R_9HA2309</t>
+          <t>ATALANTI.GR_V7A2503</t>
         </is>
       </c>
     </row>
@@ -2026,12 +2026,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AOLUCKY.tif</t>
+          <t>ATHOS.tif</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AOLUCKY_3EKM2</t>
+          <t>ATHOS_V7PY3</t>
         </is>
       </c>
     </row>
@@ -2041,12 +2041,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ALBERTO TOPIC (2).tif</t>
+          <t>ATLANTIC ADVENTURE.tif</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALBERTO TOPIC_V7LK7</t>
+          <t>ATLANTIC ADVENTURE_3FTN2</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ANQUANZHOU 66.tif</t>
+          <t>ATLANTIC BURNET.tif</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ANQUANZHOU 66_SFXL5</t>
+          <t>ATLANTIC BURNET_VRDK7</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>AN NING.tif</t>
+          <t>AU CO 1.tif</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AN NING_VREY6</t>
+          <t>AU CO 1_3WMP</t>
         </is>
       </c>
     </row>
@@ -2086,12 +2086,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ADRIATIC ID.tif</t>
+          <t>AUDACIOUS.tif</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ADRIATIC ID_VRFP6</t>
+          <t>AUDACIOUS_D5FD8</t>
         </is>
       </c>
     </row>
@@ -2101,12 +2101,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ALPINE.pdf</t>
+          <t>AUDREY SW.tif</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALPINE_V7IN5</t>
+          <t>AUDREY SW_3FMS7</t>
         </is>
       </c>
     </row>
@@ -2116,12 +2116,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ALEXANDROS 3 1-1.tif</t>
+          <t>AURORA D.tif</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALEXANDROS 3_V7RR5</t>
+          <t>AURORA D_ICDO</t>
         </is>
       </c>
     </row>
@@ -2131,12 +2131,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>AS VARESIA.tif</t>
+          <t>AURORA ONYX.tif</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AS VARESIA_A8YD9</t>
+          <t>AURORA ONYX_D5FY6</t>
         </is>
       </c>
     </row>
@@ -2146,12 +2146,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ALETHINI.tif</t>
+          <t>AURORA PEARL.tif</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALETHINI_V7TG4</t>
+          <t>AURORA PEARL_D5FX3</t>
         </is>
       </c>
     </row>
@@ -2161,12 +2161,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>AMOY DREAM.pdf</t>
+          <t>AVENTICUM.tif</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AMOY DREAM_VRHD5</t>
+          <t>AVENTICUM_HBLI</t>
         </is>
       </c>
     </row>
@@ -2176,12 +2176,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AMETRIN.tif</t>
+          <t>AVENTURIN.tif</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AMETRIN_A8YV9</t>
+          <t>AVENTURIN_CQIM</t>
         </is>
       </c>
     </row>
@@ -2191,12 +2191,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>African Jaguar.tif</t>
+          <t>AVOCET.pdf</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AFRICAN JAGUAR_C6UF4</t>
+          <t>AVOCET_V7TK4</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2206,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>AOBA.tif</t>
+          <t>AVOCET.tif</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AOBA_SPXK9</t>
+          <t>AVOCET_V7TK4</t>
         </is>
       </c>
     </row>
@@ -2221,12 +2221,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>AS VINCENTIA.tif</t>
+          <t>AYIA MARINA.tif</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AS VINCENTIA_A8VV3</t>
+          <t>AYIA MARINA_C4EZ2</t>
         </is>
       </c>
     </row>
@@ -2236,12 +2236,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ATALANTI.GR(21.04).pdf</t>
+          <t>BAO HONG 9.tif</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ATALANTI.GR_V7A2503</t>
+          <t>BAO HONG 9_BKRW5</t>
         </is>
       </c>
     </row>
@@ -2251,12 +2251,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ATHOS.tif</t>
+          <t>BAO XIANG.tif</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ATHOS_V7PY3</t>
+          <t>BAO XIANG_V3PJ2</t>
         </is>
       </c>
     </row>
@@ -2266,12 +2266,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>APUANA D.tif</t>
+          <t>BAOHONG 10.tif</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/APUANA D_ICQS</t>
+          <t>BAO HONG 10_BKVU5</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ALLIANCE NO.2.pdf</t>
+          <t>BING YE.tif</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALLIANCE NO.2_V3EM2</t>
+          <t>BING YE_3FSL2</t>
         </is>
       </c>
     </row>
@@ -2296,12 +2296,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ASIAN TRIUMPH.tif</t>
+          <t>BIRCH 2.tif</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ASIAN TRIUMPH_9V9803</t>
+          <t>BIRCH 2_VRDN7</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ALEXANDRIT.tif</t>
+          <t>BIRCH 3.tif</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALEXANDRIT_CQGF</t>
+          <t>BIRCH 3_VRDP9</t>
         </is>
       </c>
     </row>
@@ -2326,12 +2326,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ARAWANA.pdf</t>
+          <t>BIRCH3.tif</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ARAWANA_T2ZF4</t>
+          <t>BIRCH 3_VRDP9</t>
         </is>
       </c>
     </row>
@@ -2341,12 +2341,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>AQUAROSA.tif</t>
+          <t>BO SPRING.tif</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AQUAROSA_9HA2201</t>
+          <t>BO SPRING_DSRB2</t>
         </is>
       </c>
     </row>
@@ -2356,12 +2356,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>AFRICAN KITE.tif</t>
+          <t>BAI HONG.tif</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AFRICAN KITE_C6AM2</t>
+          <t>BAI HONG_XULU8</t>
         </is>
       </c>
     </row>
@@ -2371,12 +2371,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ANNI SELMER.tif</t>
+          <t>BALABAN.tif</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ANNI SELMER_V7QR7</t>
+          <t>BALABAN_TCTR5</t>
         </is>
       </c>
     </row>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ANNI SELMER (2).tif</t>
+          <t>BALGARKA.tif</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ANNI SELMER_V7QR7</t>
+          <t>BALGARKA_9HRD7</t>
         </is>
       </c>
     </row>
@@ -2401,12 +2401,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ALLIANCE NO.2 19.pdf</t>
+          <t>BALTIC ID.tif</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALLIANCE NO.2_V3EM2</t>
+          <t>BALTIC ID_VRBC7</t>
         </is>
       </c>
     </row>
@@ -2416,12 +2416,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>AMBER BEVERLY.tif</t>
+          <t>BALTIC STEAMER.tif</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AMBER BEVERLY_VRHK5</t>
+          <t>BALTIC STEAMER_V2FL5</t>
         </is>
       </c>
     </row>
@@ -2431,12 +2431,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>AN SHUN 5.pdf</t>
+          <t>BANGHAI  HOLD DROW201605.tif</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AN SHUN 5_3FKR6</t>
+          <t>BANGHAI_V3XJ2</t>
         </is>
       </c>
     </row>
@@ -2446,12 +2446,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ASIA PEAR III.tif</t>
+          <t>BANGHAI 201605.tif</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ASIA PEAR III_9V3192</t>
+          <t>BANGHAI_V3XJ2</t>
         </is>
       </c>
     </row>
@@ -2461,12 +2461,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ARAGONIT.tif</t>
+          <t>BANOS A.tif</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ARAGONIT_CQAJ</t>
+          <t>BANOS A_V7PJ7</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2476,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>AFRICAN RAPTOR.tif</t>
+          <t>BAO AN LING.tif</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AFRICAN RAPTOR_C6BR4</t>
+          <t>BAO AN LING_BRJK</t>
         </is>
       </c>
     </row>
@@ -2491,12 +2491,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ANTIGONI B.tif</t>
+          <t>BAO FLOURISH.tif</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ANTIGONI B_V7PU4</t>
+          <t>BAO FLOURISH_VRJQ6</t>
         </is>
       </c>
     </row>
@@ -2506,12 +2506,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ALPINE.tif</t>
+          <t>BAO HE LING.tif</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALPINE_V7IN5</t>
+          <t>BAO HE LING_BRJN</t>
         </is>
       </c>
     </row>
@@ -2521,12 +2521,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ALTAI.tif</t>
+          <t>BAO HONG 10.tif</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALTAI_D5BA4</t>
+          <t>BAO HONG 10_BKVU5</t>
         </is>
       </c>
     </row>
@@ -2536,12 +2536,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AN QING JIANG.tif</t>
+          <t>BAO HONG 3 (2012.07.20).tif</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AN QING JIANG_BOKA</t>
+          <t>BAO HONG 3_T3PS</t>
         </is>
       </c>
     </row>
@@ -2551,12 +2551,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AOLI 6.tif</t>
+          <t>BAO HONG 8.pdf</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AOLI 6_VRIJ6</t>
+          <t>BAO HONG 8_BKTD4</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AMP DIAMOND.tif</t>
+          <t>BAO HONG 8.tif</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AMP DIAMOND_VRHU5</t>
+          <t>BAO HONG 8_BKTD4</t>
         </is>
       </c>
     </row>
@@ -2581,12 +2581,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ANQUANZHOU 66 (2).tif</t>
+          <t>BAO HONG 9 ( 2018.10.19).tif</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ANQUANZHOU 66_SFXL5</t>
+          <t>BAO HONG 9_BKRW5</t>
         </is>
       </c>
     </row>
@@ -2596,12 +2596,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AMAZING.tif</t>
+          <t>BAO HONG 9 20151210 (2).tif</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AMAZING_9HA2330</t>
+          <t>BAO HONG 9_BKRW5</t>
         </is>
       </c>
     </row>
@@ -2611,12 +2611,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ASAHI MARU.tif</t>
+          <t>BAO HONG 9 20151210.tif</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ASAHI MARU_3FAZ2</t>
+          <t>BAO HONG 9_BKRW5</t>
         </is>
       </c>
     </row>
@@ -2626,12 +2626,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>AN FENG8.tif</t>
+          <t>BAO LUCKY.tif</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AN FENG 8_V3GZ</t>
+          <t>AOLUCKY_3EKM2</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ASL ERA.tif</t>
+          <t>BAO NING LING.tif</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ASL ERA_V7A2053</t>
+          <t>BAO NING LING_BRJO</t>
         </is>
       </c>
     </row>
@@ -2656,12 +2656,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AGIOS NIKOLAOS(21.04).pdf</t>
+          <t>BAO RUI LING.pdf</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/Agios Nikolaos_D5XR8</t>
+          <t>BAO RUI LING_BROZ</t>
         </is>
       </c>
     </row>
@@ -2671,12 +2671,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ALBERTO TOPIC.tif</t>
+          <t>BAO RUI LING.tif</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALBERTO TOPIC_V7LK7</t>
+          <t>BAO RUI LING_BROZ</t>
         </is>
       </c>
     </row>
@@ -2686,12 +2686,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>AMGU.tif</t>
+          <t>BAO SUCCESS.tif</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AMGU_V3NS9</t>
+          <t>BAO SUCCESS_9V7745</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ASIA STAR.tif</t>
+          <t>BARANEE NAREE.tif</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ASIA STAR_T3MM</t>
+          <t>BARANEE NAREE_S6EP8</t>
         </is>
       </c>
     </row>
@@ -2716,12 +2716,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ANCASH QUEEN.tif</t>
+          <t>BASIC BRAVE 19.pdf</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ANCASH QUEEN_3FLV4</t>
+          <t>Basic Brave_3EVG4</t>
         </is>
       </c>
     </row>
@@ -2731,12 +2731,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AS VINCENTIA (2).tif</t>
+          <t>BASIC BRAVE.pdf</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AS VINCENTIA_A8VV3</t>
+          <t>Basic Brave_3EVG4</t>
         </is>
       </c>
     </row>
@@ -2746,12 +2746,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>AP DRZIC.pdf</t>
+          <t>BASIC PRINCESS.tif</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AP DRZIC_V7RA4</t>
+          <t>BASIC PRINCESS_3EVW9</t>
         </is>
       </c>
     </row>
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ALKYONI SB 20161206.tif</t>
+          <t>BASIC QUEEN.tif</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALKYONI SB_5BBT4</t>
+          <t>Basic Queen_3FBF3</t>
         </is>
       </c>
     </row>
@@ -2776,12 +2776,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ANANYA NAREE.tif</t>
+          <t>BASIC RELIANCE.tif</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ANANYA NAREE_9V9383</t>
+          <t>Basic Reliance_H9YA</t>
         </is>
       </c>
     </row>
@@ -2791,12 +2791,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>APEX.tif</t>
+          <t>Beacon SW.tif</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/APEX_V7SA9</t>
+          <t>Beacon SW_3EMX3</t>
         </is>
       </c>
     </row>
@@ -2806,12 +2806,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AQUITANIA.tif</t>
+          <t>BEI HAI.tif</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AQUITANIA_MADG</t>
+          <t>BEIHAI_3FSI5</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ANIMA.tif</t>
+          <t>BEIJING VENTURE.tif</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ANIMA_5BQG4</t>
+          <t>BEIJING VENTURE_VRGB8</t>
         </is>
       </c>
     </row>
@@ -2836,12 +2836,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ALAM AMAN 2.tif</t>
+          <t>BEKS MUNEVVER.tif</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALAM AMAN 2_9MEP3</t>
+          <t>BEKS MUNEVVER_V7LL6</t>
         </is>
       </c>
     </row>
@@ -2851,12 +2851,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ANNA BO.tif</t>
+          <t>BELNOR.tif</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ANNA BO_HPGG</t>
+          <t>BELNOR_9V8505</t>
         </is>
       </c>
     </row>
@@ -2866,12 +2866,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AERO STAR.tif</t>
+          <t>BENJAMAS NAREE.pdf</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AERO STAR_3ESH7</t>
+          <t>BENJAMAS NAREE_9V9405</t>
         </is>
       </c>
     </row>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AMOY PROGRESS.tif</t>
+          <t>BERGE GALDHOPIGGEN.tif</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AMOY PROGRESS_VRIO3</t>
+          <t>BERGE GALDHOPIGGEN_MDWB4</t>
         </is>
       </c>
     </row>
@@ -2896,12 +2896,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AMAZING1.tif</t>
+          <t>BEST PESCADORES.tif</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AMAZING_9HA2330</t>
+          <t>BEST PESCADORES_H3GZ</t>
         </is>
       </c>
     </row>
@@ -2911,12 +2911,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ASIATIC.tif</t>
+          <t>BIANCO DAN(NEW-2013.0718).tif</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ASIATIC_SVBN4</t>
+          <t>BIANCO DAN_HPZT</t>
         </is>
       </c>
     </row>
@@ -2926,12 +2926,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ANACAPA LIGHT.tif</t>
+          <t>BIANCO DAN.tif</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ANACAPA LIGHT_VRLE5</t>
+          <t>BIANCO DAN_HPZT</t>
         </is>
       </c>
     </row>
@@ -2941,12 +2941,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ASAKA.tif</t>
+          <t>BITTERN (2).tif</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ASAKA_D7BR</t>
+          <t>BITTERN_V7SR7</t>
         </is>
       </c>
     </row>
@@ -2956,12 +2956,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>AGRIA.tif</t>
+          <t>BITTERN (3).tif</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AGRIA_9HA2575</t>
+          <t>BITTERN_V7SR7</t>
         </is>
       </c>
     </row>
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ARKLOW SPRAY (2).tif</t>
+          <t>BITTERN.tif</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/Arklow Spray_EIOG8</t>
+          <t>BITTERN_V7SR7</t>
         </is>
       </c>
     </row>
@@ -2986,12 +2986,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>AP DRZIC(CL).tif</t>
+          <t>BIWA ARROW (2).tif</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AP DRZIC_V7RA4</t>
+          <t>BIWA ARROW_HOGX</t>
         </is>
       </c>
     </row>
@@ -3001,12 +3001,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ASIA EMERALD 2.tif</t>
+          <t>BIWA ARROW.tif</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ASIA EMERALD 2_9V3242</t>
+          <t>BIWA ARROW_HOGX</t>
         </is>
       </c>
     </row>
@@ -3016,12 +3016,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AS VIRGINIA (3).tif</t>
+          <t>BIWAKO.tif</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AS VIRGINIA_A8SO9</t>
+          <t>BIWAKO_9LY2132</t>
         </is>
       </c>
     </row>
@@ -3031,12 +3031,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ALAM SERI.tif</t>
+          <t>BIZAN(P).tif</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/Alam Seri_3FVL2</t>
+          <t>BIZAN_3FRM8</t>
         </is>
       </c>
     </row>
@@ -3046,12 +3046,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AMS PEGASUS III.tif</t>
+          <t>BJ ACE(C).tif</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AMS PEGASUS III_3EWA8</t>
+          <t>BJ ACE_DSQP6</t>
         </is>
       </c>
     </row>
@@ -3061,12 +3061,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>AQUATAURUS.pdf</t>
+          <t>BJ ACE(P).tif</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AQUATAURUS_D5NG5</t>
+          <t>BJ ACE_DSQP6</t>
         </is>
       </c>
     </row>
@@ -3076,12 +3076,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AAL SINGAPORE.tif</t>
+          <t>BK DUKE.tif</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AAL SINGAPORE_V7XB6</t>
+          <t>BK DUKE_DSPX7</t>
         </is>
       </c>
     </row>
@@ -3091,12 +3091,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ALAM SINAR.tif</t>
+          <t>BK ELITE.tif</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALAM SINAR_9V2204</t>
+          <t>BK ELITE_D7AD</t>
         </is>
       </c>
     </row>
@@ -3106,12 +3106,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>AEOLOS.tif</t>
+          <t>BLACKY.tif</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AEOLOS_V7PS2</t>
+          <t>BLACKY_5BBL2</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ASTON TRADER 2.tif</t>
+          <t>BLUE BALANCE 20161124.tif</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ASTON TRADER 2_DUAV</t>
+          <t>BLUE BALANCE_3FDL8</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3136,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>AGRIA (2).tif</t>
+          <t>BLUE DIAMOND.tif</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AGRIA_9HA2575</t>
+          <t>BLUE DIAMOND_A8KO6</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AP DRZIC.tif</t>
+          <t>BLUE DRAGON.tif</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AP DRZIC_V7RA4</t>
+          <t>BLUE DRAGON_V7XH4</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>AMBER VITA 1-2.tif</t>
+          <t>BLUE EMPEROR 5.tif</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AMBER VITA_9HJQ9</t>
+          <t>BLUE EMPEROR 5_J8B4439</t>
         </is>
       </c>
     </row>
@@ -3181,12 +3181,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>AROMA.tif</t>
+          <t>BO DUN2.tif</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AROMA_VRFQ8</t>
+          <t>BO DUN 2_BIJR</t>
         </is>
       </c>
     </row>
@@ -3196,12 +3196,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ATALANTE.pdf</t>
+          <t>BO SPRING (C).tif</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ATALANTE_9HA3548</t>
+          <t>BO SPRING_DSRB2</t>
         </is>
       </c>
     </row>
@@ -3211,12 +3211,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>AS VIRGINIA (2).tif</t>
+          <t>BONITA(C).tif</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AS VIRGINIA_A8SO9</t>
+          <t>BONITA_LALO7</t>
         </is>
       </c>
     </row>
@@ -3226,12 +3226,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>AFRICAN SWAN.tif</t>
+          <t>BONITA(P).tif</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AFRICAN SWAN_C6ZH7</t>
+          <t>BONITA_LALO7</t>
         </is>
       </c>
     </row>
@@ -3241,12 +3241,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AFRICAN ALBAATROSS.tif</t>
+          <t>BONNIE VENTURE 20161207.tif</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AFRICAN ALBAATROSS_VRDQ4</t>
+          <t>BONNIE VENTURE_VRJD8</t>
         </is>
       </c>
     </row>
@@ -3256,12 +3256,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AFRICAN ROBIN.tif</t>
+          <t>BORON NAVIGATOR.tif</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AFRICAN ROBIN_C6XI8</t>
+          <t>BORON NAVIGATOR_H9DA</t>
         </is>
       </c>
     </row>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ALALANTE.pdf</t>
+          <t>BRAVO V.tif</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ALALANTE_9HA3548</t>
+          <t>BRAVO V_3ETP9</t>
         </is>
       </c>
     </row>
@@ -3286,12 +3286,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ANASTASIA K.tif</t>
+          <t>BRIGHT KOWA.tif</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ANASTASIA K_9HA2202</t>
+          <t>BRIGHT KOWA_V7XY6</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ASTERIS.tif</t>
+          <t>BRIGHT OCEAN 2.pdf</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ASTERIS_V7LN3</t>
+          <t>Bright Ocean_HOGQ</t>
         </is>
       </c>
     </row>
@@ -3316,12 +3316,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>AS VIRGINIA.tif</t>
+          <t>BRIGHT OCEAN.pdf</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AS VIRGINIA_A8SO9</t>
+          <t>Bright Ocean_HOGQ</t>
         </is>
       </c>
     </row>
@@ -3331,12 +3331,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AMBER VITA 1-1.tif</t>
+          <t>BRIGHT OCEAN.tif</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/AMBER VITA_9HJQ9</t>
+          <t>Bright Ocean_HOGQ</t>
         </is>
       </c>
     </row>
@@ -3346,12 +3346,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ACS DIAMOND(NEW).tif</t>
+          <t>BRILLIANT PESCADORES.tif</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ACS DIAMOND (NEW)_9VCF5</t>
+          <t>BRILLIANT PESCADORES_H9JY</t>
         </is>
       </c>
     </row>
@@ -3361,12 +3361,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>EVER WISDOM (2020).pdf</t>
+          <t>BUNUN BRAVE.tif</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/E/EVER WISDOM (2020)_V3DZ</t>
+          <t>BUNUN BRAVE_VRNK2</t>
         </is>
       </c>
     </row>
@@ -3376,12 +3376,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>SNK LADY.tif</t>
+          <t>CAPTAIN T.tif</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/S/SNK LADY_DSQB7</t>
+          <t>CAPTAIN T_V7MV4</t>
         </is>
       </c>
     </row>
@@ -3391,12 +3391,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SUN EASTERN (2020).pdf</t>
+          <t>CHANG PING.tif</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/S/SUN EASTERN_D7BA</t>
+          <t>CHANG PING_XUFB8</t>
         </is>
       </c>
     </row>
@@ -3406,12 +3406,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SEA ATHENA.tif</t>
+          <t>CHANG YOUNG.tif</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ATHENA_A8UQ7</t>
+          <t>CHANG YOUNG_D8 VY</t>
         </is>
       </c>
     </row>
@@ -3421,12 +3421,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SNK LADY(2012.04.15).tif</t>
+          <t>CHRISTINA L.tif</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/S/SNK LADY_DSQB7</t>
+          <t>CHRISTINA L_SYAP</t>
         </is>
       </c>
     </row>
@@ -3436,12 +3436,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DONG CHANG HAI.tif</t>
+          <t>CHUN KWANG.tif</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG HAI_BUUM</t>
+          <t>CHUN KWANG_DSEZ8</t>
         </is>
       </c>
     </row>
@@ -3451,12 +3451,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>PACIFIC SCORPIO.tif</t>
+          <t>C HANDY.tif</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/P/PACIFIC SCORPIO_ELTV9</t>
+          <t>C HANDY_V7VW8</t>
         </is>
       </c>
     </row>
@@ -3466,12 +3466,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>PLUTO.pdf</t>
+          <t>C. FRIEND.tif</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/P/PLUTO_D7PT</t>
+          <t>C.FRIEND_DSNN8</t>
         </is>
       </c>
     </row>
@@ -3481,12 +3481,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>GUANGZHOU STAR.tif</t>
+          <t>C.FRIEND.tif</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/G/GUANGZHOU STAR_HOHW</t>
+          <t>C.FRIEND_DSNN8</t>
         </is>
       </c>
     </row>
@@ -3496,12 +3496,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>GUANGZHOU STAR.pdf</t>
+          <t>C.S. STAR.tif</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/G/GUANGZHOU STAR_HOHW</t>
+          <t>C.S. STAR_3FVA8</t>
         </is>
       </c>
     </row>
@@ -3511,12 +3511,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>KWANGYANG HARVEST.pdf</t>
+          <t>C.S.PRINCESS.pdf</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/K/KWANGYANG HARVEST_D7UE</t>
+          <t>C.S.PRINCESS_3EYW3</t>
         </is>
       </c>
     </row>
@@ -3526,12 +3526,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>K.PLUTO.tif</t>
+          <t>CABOT AVIVA.tif</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/P/PLUTO_D7PT</t>
+          <t>CABOT AVIVA_INMAR</t>
         </is>
       </c>
     </row>
@@ -3541,12 +3541,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>KEUMYANG7.tif</t>
+          <t>CALY MANX.tif</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/K/KEUMYANG 7_D7SW</t>
+          <t>CALY MANX_2CQI6</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3556,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>KWANGYANG 12.tif</t>
+          <t>CANARY.tif</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/K/KWANGYANG 12_DSPW3</t>
+          <t>CANARY_V7TG3</t>
         </is>
       </c>
     </row>
@@ -3571,12 +3571,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>KEUMYANG 6.tif</t>
+          <t>CANELO ARROW.tif</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/K/KEUMYANG 6_D7SU</t>
+          <t>CANELO ARROW_C6OM8</t>
         </is>
       </c>
     </row>
@@ -3586,12 +3586,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>KWANGYANG 12(C).tif</t>
+          <t>CANES(2018.08.06).tif</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/K/KWANGYANG 12_DSPW3</t>
+          <t>CANES_D.S.Q.W.8</t>
         </is>
       </c>
     </row>
@@ -3601,12 +3601,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>KEUM YANG 6 (2020).pdf</t>
+          <t>CAPETAN VASSILIS.tif</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/K/KEUMYANG 6_D7SU</t>
+          <t>CAPETAN VASSILIS_C6S2085</t>
         </is>
       </c>
     </row>
@@ -3616,12 +3616,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>KEUMYANG 1.pdf</t>
+          <t>CAPTAIN V. MAZURENKO.tif</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/K/KEUMYANG 1_D8GY</t>
+          <t>Captain V. Mazurenko_A8TZ2</t>
         </is>
       </c>
     </row>
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>KEUM YANG 1 (2020).pdf</t>
+          <t>CARIBBEAN FRONTIER.tif</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/K/KEUMYANG 1_D8GY</t>
+          <t>CARIBBEAN FRONTIER_S6GM9</t>
         </is>
       </c>
     </row>
@@ -3646,12 +3646,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>HESED(2013.05.09).tif</t>
+          <t>CARIBBEAN ID.tif</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/H/HESED_3ERV</t>
+          <t>CARIBBEAN ID_VRYI8</t>
         </is>
       </c>
     </row>
@@ -3661,12 +3661,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ZENITH WINNER.tif</t>
+          <t>CARINA (2020).pdf</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/Z/ZENITH WIN_D7ZW</t>
+          <t>CARINA_D7MH</t>
         </is>
       </c>
     </row>
@@ -3676,12 +3676,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ZENITH ORION.tif</t>
+          <t>CARINA.pdf</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/Z/ZENITH ORION_DSOZ6</t>
+          <t>CARINA_D7MH</t>
         </is>
       </c>
     </row>
@@ -3691,12 +3691,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ZENITH ELITE.tif</t>
+          <t>CASTLE GATE.tif</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/Z/ZENITH ELITE_3EZU4</t>
+          <t>CASTLEGATE_24NR2</t>
         </is>
       </c>
     </row>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ZENITH WIN (2020).pdf</t>
+          <t>CETUS.tif</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/Z/ZENITH WIN_D7ZW</t>
+          <t>CETUS_DSNY7</t>
         </is>
       </c>
     </row>
@@ -3721,12 +3721,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ZENITH ELITE (2).tif</t>
+          <t>CEYLON BREEZE 201607.tif</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/Z/ZENITH ELITE_3EZU4</t>
+          <t>CEYLON BREEZE _4RDW</t>
         </is>
       </c>
     </row>
@@ -3736,12 +3736,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ZENITH ELITE 20,04.pdf</t>
+          <t>CH BELLA (P).tif</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/Z/ZENITH ELITE_3EZU4</t>
+          <t>CH BELLA_DSQX5</t>
         </is>
       </c>
     </row>
@@ -3751,12 +3751,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ZENITH ORION 2.tif</t>
+          <t>CH BELLA(C).tif</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/Z/ZENITH ORION_DSOZ6</t>
+          <t>CH BELLA_DSQX5</t>
         </is>
       </c>
     </row>
@@ -3766,12 +3766,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>XI CHANG HAI.tif</t>
+          <t>CH BELLA(C-NEW).tif</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG HAI_BUUM</t>
+          <t>CH BELLA_DSQX5</t>
         </is>
       </c>
     </row>
@@ -3781,12 +3781,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>XU CHANG HAI.tif</t>
+          <t>CH CLARE (2).tif</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/C/CHANG HAI_BUUM</t>
+          <t>CH CLARE_DSQT5</t>
         </is>
       </c>
     </row>
@@ -3796,12 +3796,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>YANGTZE PIONEER.tif</t>
+          <t>CH CLARE(2012.05.15).tif</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/Y/YANGTZE PIONEER_9V9147</t>
+          <t>CH CLARE_DSQT5</t>
         </is>
       </c>
     </row>
@@ -3811,12 +3811,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>YASA KAPTAN ERBIL.tif</t>
+          <t>CH CLARE.tif</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/A/ASAKA_D7BR</t>
+          <t>CH CLARE_DSQT5</t>
         </is>
       </c>
     </row>
@@ -3826,12 +3826,4917 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>YANGTZE DIGNITY.tif</t>
+          <t>CHALOTHORN NAREE.tif</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>/Users/hongsi/Desktop/선박트리/Y/YANGTZE DIGNITY_VRJW5</t>
+          <t>CHALOTHORN NAREE_HSCT</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>CHANCE STAR.tif</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>CHANCE STAR_3FPF8</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>CHANE NAVIGATOR.tif</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>CHANE NAVIGATOR_VRHG8</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>CHANG AN QUICK(N).tif</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>CHANG AN QUICK_HP6480</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>CHANG AN QUICK.tif</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>CHANG AN QUICK_HP6480</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>CHANG AN REGAL.tif</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>CHANG AN REGAL_3FLJ3</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>CHANG AN SMART.tif</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>CHANG AN SMART_3FBA3</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>CHANG AN UNION.tif</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>CHANG AN UNION_3FPF8</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>CHANG AN(C).tif</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>CHANG AN_3FNE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>CHANG AN(P).tif</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>CHANG AN_3FNE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>CHANG CHUAN.tif</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>CHANG CHUAN_V3PD</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>CHANG DA 217 (2012.06.25).tif</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>CHANG DA 217_V3IK</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>CHANG DA 368.tif</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>CHANG DA 368_V3QG7</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>CHANG DA217.tif</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>CHANG DA 217_V3IK</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>CHANG HAI 19.pdf</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>CHANG HAI_BUUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>CHANG HAI.pdf</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>CHANG HAI_BUUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>CHANG HANG FAN HAI.tif</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>CHANG HANG FAN HAI_BIAF6</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>CHANG HONG.tif</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>CHANG HONG_V3P2</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>CHANG LIAN HAI.tif</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>CHANG LIAN HAI_9LY2646</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>CHANG MING.tif</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>CHANG MING_3FBY9</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>CHANG QING.tif</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>CHANG QING_V3NI6</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>CHANG RONG.tif</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>CHANG RONG_XUA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>CHANG SHAN.tif</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>CHANG SHAN_VRIN2</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>CHANG SHENG.tif</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>CHANG SHENG_V 3 P K</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>CHANG XIN.tif</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>CHANG XIN_XURZ7</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>CHANG YOUNG(2013.11.02).tif</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>CHANG YOUNG_D8 VY</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>CHANGAN BRAVE.tif</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>CHANG AN_3FNE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>CHANGHAI.tif</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>CHANG HAI_BUUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>CHANGHANG HUAIHAI.tif</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>CHANGHANG HUAIHAI_BULN</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>CHANGXIN.tif</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>CHANG XIN_XURZ7</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>CHARANA NAREE (2012.07.13).tif</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>CHARANA NAREE_HSCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>CHENG LU 28.tif</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>CHENG LU28_BKUK5</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>CHENG LU7.tif</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>CHENG LU7_T3QF</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>CHENG SHAN WEI.tif</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>CHENG SHAN WEI_BBKC8</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>CHEONG UN STAR(4월10이전).tif</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>CHEONG UN STAR_HO-2542</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>CHEONG UN STAR(NEW).tif</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>CHEONG UN STAR_HO-2542</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>CHINA SPIRIT.tif</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>China Spirit_VRLC4</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>CHINTANA NAREE.tif</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>CHINTANA NAREE_9V9406</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>CHIOS SUNRISE.tif</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>CHIOS SUNRISE_V7AI8</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>CHIPOLBROK PACIFIC.tif</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>CHIPOLBROK PACIFIC_VRPC3</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>CHRISTINA.tif</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>CHRISTINA_DSPP4</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>CHRISTINE B.tif</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>CHRISTINE B_SVAY5</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>CHRISTOPH S.tif</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>CHRISTOPHS_V2FO7</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>CHRISTOS THEO.tif</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>CHRISTOS THEO_V7SK6</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>CHUN WEI.tif</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>CHUN WEI _XUAZ8</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>CHUN YANG 17.tif</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>CHUN YANG 17_9LY2624</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>chun yeon.tif</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>CHUN YEON_DSEY6</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>CI YUN SHAN 20161206.tif</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>CI YUN SHAN_VRHK7</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>CIELO DI GENOVA.tif</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>CIELO DI GENOVA_3ECX5</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>CIELO DI MONFALCONE.tif</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>CIELO DI MONFALCONE_ICCW</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>CIELO DI PALERMO.pdf</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>CIELO DI PALERMO_3FRS8</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>CIELO DI VALPARAISO.pdf</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>CIELO DI VALPARAISO_9HA3928</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>CIELO DI VALPARAISO.tif</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>CIELO DI VALPARAISO_9HA3928</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>CJK BUSAN.tif</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>CJK BUSAN_T2GZ3</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>CJK OSAKA.tif</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>CJK OSAKA_HO-3741</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>CK GLORY.tif</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>CK GLORY_3EJS</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>CL JUDY.pdf</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>CL JUDY_VRSE3</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>CL LINDY.tif</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>CL LINDY_VRSE2</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>CLEANTEC.tif</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>CLEANTEC _VRFT6</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>M.V. CANELO ARROW.tif</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>CANELO ARROW_C6OM8</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>M.V. CHANG SHAN.tif</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>CHANG SHAN_VRIN2</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>DARYA MAHESH.tif</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>DARYA MAHESH_VRDY6</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>DA YANG BAI LI.tif</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>DA YANG BAI LI_BHUU</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>DA ZI YUN.tif</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>DA ZI YUN_VRGB6</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>DAE BO MASAN(2012.05.11).tif</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>DAEBO MASAN_DSPV2</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>DAEBO POHANG.tif</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>DAEBO POHANG_3ESH7</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>DAEBO SHANGHAI.tif</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>DAEBO SHANGHAI_3ETH6</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>DAEHO INCHON.tif</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>DAEHO INCHON_300대호인천호</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>DAEWOO BRAVE.tif</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>DAEWOO BRAVE_A8PG6</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>DAFENG.tif</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>DAFENG_HOHW</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>DAISY K.tif</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>DAISY K_3FCX6</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>DANCEWOOD SW.tif</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>DANCEWOOD SW_3FGQ2</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>DANNY BOY.tif</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>DANNY BOY_C6US9</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>DAPENGHAI.tif</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>DAPENGHAI_VRBE6</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>DARYA GANGA.tif</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>DARYA GANGA_VRJB8</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>DARYA LAKSHMI.tif</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>DARYA LAKSHMI_VRFK2</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>DARYA SUR.tif</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Darya Sur_VRWJ4</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>DAYANG CENTURY 19.pdf</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>DAYANG CENTURY_D5DD6</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>DAYANG CENTURY.pdf</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>DAYANG CENTURY_D5DD6</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>DAYDREAM BELIEVER.tif</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>DAYDREAM BELIEVER_V7XJ3</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>DD VICTORY.tif</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>DD VICTORY_3EPG5</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>DONG CHANG HAI.tif</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>CHANG HAI_BUUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>DONGBANG SAPPHIRE.pdf</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>DONGBANG SAPPHIRE_DSPC5</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>DONGBANG SAPPHIRE.tif</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>DONGBANG SAPPHIRE_DSPC5</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>FESCO STAVROPOL.tif</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>FESCO STAVROPOL_V7VC9</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>FURNESS KARUMBA.tif</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>FURNESS KARUMBA_H9DV</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>FICTION.tif</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>FICTION_V2CQ2</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>FURTRANS BULK(C).tif</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>FURTRANS BULK_V7JL3</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>FAIR WIND.tif</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>FAIR WIND_3EIH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>FAIR WINDS.tif</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>FAIR WINDS_C6XR2</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>FAITH (2020).pdf</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>FAITH (2020)_DSMZ9</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>FALCON BAY.tif</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>FALCON BAY_2IPJ6</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>FANTASTIC.tif</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>FANTASTIC_9HA2329</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>FANY.tif</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>FANY_DSOX5</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>FAVORITA 20151128.tif</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>FAVORITA_LAGM6</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>FEARLESS.tif</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>FEARLESS_D5EB8</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>FEDERAL BARENTS.tif</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>FEDERAL BARENTS_V7FY7</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>FEDERAL HUNTER.tif</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>FEDERAL HUNTER_VRWP2</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>FEDERAL KATSURA.tif</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>FEDERAL KATSURA_3EAC9</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>FEDERAL MAAS.tif</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>FEDERAL MAAS_8POB</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>FEDERAL OSHIMA.tif</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>FEDERAL OSHIMA_VRVY8</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>FENG DA.pdf</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>FENG DA_V3WX8</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>FENGLI 10.tif</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>FENGLI 10_3EWX6</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>FENGXIANG.tif</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>FENGXIANG_XUJS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>FERMITA (2012.05.17).tif</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>FERMITA_LACV6</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>FESCO SARATOV.tif</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>FESCO SARATOV_V7VC6</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>FESCO STAVROPOL(2012.05.14).tif</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>FESCO STAVROPOL_V7VC9</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>FIESTA (1).tif</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>FIESTA_A8MV5</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>FIESTA (2).tif</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>FIESTA_A8MV5</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>FIESTA.tif</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>FIESTA_A8MV5</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>FINCH ARROW.tif</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>FINCH ARROW_3EYK5</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>FLAG ALEXANDROS.tif</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>FLAG ALEXANDROS_3EWY7</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>FLEX SHINE.tif</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>FLEX SHINE_VRYX4</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>FLORENCE D.tif</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>FLORENCE D_V7SA2</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>FLYING CRANE.tif</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>FLYING CRANE_3EMS9</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>FOISON OCEAN.tif</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>FOISON OCEAN_V3DF2</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>FON TAI.tif</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>FON TAI_VRHC6</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>FOREVER SW.tif</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>FOREVER SW_3FIS8</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>FORTUNE SUN.tif</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>FORTUNE SUN_VRMS8</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>FOUR KITAKAMI.tif</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>FOUR KITAKAMI_3FWQ6</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>FPMC B 201.pdf</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>FPMC B 201_A8XJ4</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>FPMCB 201.pdf</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>FPMC B 201_A8XJ4</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>FRATZIS STAR.tif</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>FRATZIS STAR_V7HA9</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>FREE HERO.tif</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>FREE HERO_A8UM5</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>FREE KNIGHT.tif</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>FREE KNIGHT_C6UG3</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>FREEDOM LILY.tif</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>FREEDOM LILY_VRAW2</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>FREYA.tif</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>FREYA_VRYY3</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>FRIEDA SELMER (2012.08.01).tif</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>FRIEDA SELMER_V7GM7</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>FU AN HAI.tif</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>FU AN HAI_3EZG4</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>FU CHENG.tif</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>FU CHENG_BFBD</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>FU IONG.tif</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>FU IONG_5VCE9</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>FU LONG (2020).pdf</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>FULONG_BFBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>FU LONG(2).tif</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>FULONG_BFBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>FU LONG(3).tif</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>FULONG_BFBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>FU LONG.tif</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>FULONG_BFBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>FUAT BEY.tif</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>FUAT BEY_TCA3065</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>FUGA.pdf</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>FUGA_3FGG3</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>FUGA.tif</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>FUGA_3FGG3</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>FULL RICH.tif</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>FULL RICH_VRWC9</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>FULONG.tif</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>FULONG_BFBE</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>FURTRANS BULK.tif</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>FURTRANS BULK_V7JL3</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>M.V. FREE HERO.tif</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>FREE HERO_A8UM5</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>GDF SUEZ GHENT(2012.05.14).tif</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>GDF SUEZ GHENT_H9SY</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>GENIUS MARINER.tif</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>GENIUS MARINER_H3MZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>GO TRADER.tif</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>GO TRADER_9HML8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>GREAT MARY.tif</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>GREAT MARY_V7I04</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>GENESIS WAVE.tif</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>GENESIS WAVE_DSEV7</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>G. ARETE.pdf</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>G. ARETE_3FXL8</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>GAILLARDIA SW.tif</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>GAILLARDIA SW_3FQO8</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>GANG QIANG.tif</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>GANG QIANG_3FYK6</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>GANNET BULKER.pdf</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>GANNET BULKER_V7TX5</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>GDF SUEZ NORTH SEA.tif</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>GDF SUEZ NORTH SEA_HPSQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>GEMINI PIONEER.tif</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>GEMINI PIONEER_3EQY9</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>GENCO ARDENNES.tif</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>GENCO ARDENNES_V7EN2</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>GENCO PYRENEES.tif</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>GENCO PYRENEES_V7KB5</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>GENCO RELIANCE.tif</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>GENCO RELIANCE_VRZB7</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>GENCO WARRIOR.tif</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>GENCO WARRIOR_V7LU3</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>GENESIS WAVE (2012.05.17).tif</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>GENESIS WAVE_DSEV7</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>GENIUS MARINER - ASAN.tif</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>GENIUS MARINER_H3MZ</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>GENKO MARNIE.tif</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>GENKO MARNIE_VRXC2</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>GH NORTHERDAM DANCER.tif</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>GH NORTHERDAM DANCER_V7GM5</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>GH SECRETARIAT.tif</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>GH SECRETARIAT_V7OV6</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>GIANT OCEAN.tif</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>GIANT OCEAN_VRHI3</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>GIANT SEA.tif</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>GIANT SEA_VRHI4</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>GIOVANNA.tif</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>GIOVANNA_C6ZG2</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>GIOVANNI TOPIC.tif</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>GIOVANNI TOPIC_ELUK4</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>GIULIA.tif</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>GIULIA_9HA3585</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>GLARING PESCADORES.tif</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>GLARING PESCADORES_HPWN</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>GLEAMING OASIS.tif</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>GLEAMING OASIS_3EMB8</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>GLEANEAGLES.tif</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>GLEANEAGLES_9V3775</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>GLOBAL BRAVE.tif</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>GLOBAL BRAVE_3FHX4</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>GLOBAL DREAM.tif</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>GLOBAL DREAM_3FHT7</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>GLOBAL GENESIS.tif</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>GLOBAL GENESIS_3FLO2</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>GLOBAL LEADER...tif</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>GLOBAL LEADER_DSNS5</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>GLOBAL LEADER..tif</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>GLOBAL LEADER_DSNS5</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>GLOBAL LEADER.tif</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>GLOBAL LEADER_DSNS5</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>GLOBAL PIONEER.tif</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>GLOBAL PIONEER_D8CR</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>GLOBAL PRIME.tif</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>GLOBAL PRIME_C6AT2</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>GLOBAL PURITY.tif</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>GLOBAL PURITY_3FOD8</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>GLOBAL STANDARD.tif</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>GLOBAL STANDARD_3ETY9</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>GLOBAL TOMORROW.tif</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>GLOBAL TOMORROW_3FSV5</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>GLOBAL TOP 5 (1).tif</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>GLOBAL TOP 5_XUPW8</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>GLOBAL TOP 5.tif</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>GLOBAL TOP 5_XUPW8</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>GLOBETROTTER.tif</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>GLOBETROTTER_9HFK9</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>GLORIA GALAXY.tif</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>GLORIA GALAXY_3FFR</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>GLORIANA.tif</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>GLORIANA_MRBS9</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>GLORIOSA.tif</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>GLORIOSA_3FTF</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>GLORIOUS FUJI.tif</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>GLORIOUS FUJI_3EVV4</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>GLORIOUS KAMAGARI(ARGO).tif</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>GLORIOUS KAMAGARI_V7AH4</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>GLORIOUS KAMAGARI.tif</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>GLORIOUS KAMAGARI_V7AH4</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>GLORIOUS OCEAN.tif</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>GLORIOUS OCEAN_V3DN2</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>GLORIOUS SUNRISE.tif</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>GLORIOUS SUNRISE_HPBW</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>GLORY SANYE.tif</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>GLORY SANYE_9HSS9</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>GLOVIS MADONNA.tif</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>GLOVIS MADONNA_9V9721</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>GLOVIS MASTER.tif</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>GLOVIS MASTER_3FRL5</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>GMT PHOENIX.tif</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>GMT PHOENIX_VRIG3</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>GO STAR.tif</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>GO STAR_9HHD9</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>GOLD SOURCE.pdf</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>GOLD SOURCE_3FVQ5</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>GOLDEN GEMINI.tif</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>GOLDEN GEMINI_VROG5</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>GOLDEN VIRGO.tif</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>GOLDEN VIRGO_VRPH6</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>GOLDEN VOYAGE.tif</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>GOLDEN VOYAGE_3EGS2</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>GOLDENEYE.tif</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>GOLDENEYE_V7PK5</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>GOOD LUCK.tif</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>GOOD LUCK_P3BV9</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>GORA.tif</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>GORA_A8TV6</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>GRACE OCEAN.tif</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>GRACE OCEAN_3EVL5</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>GRAET MAJESTY.tif</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>GRAET MAJESTY_VRVY7</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>GRAND BREAKER.tif</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>GRAND BREAKER_V7XF9</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>GRAND FORTUNE.tif</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>GRAND FORTUNE_3EXG3</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>GRAND MUSE.tif</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>GRAND MUSE_HO6237</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>GRAND PIONEER.tif</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>GRAND PIONEER_V7XG2</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>GRANDE FORTUNA.tif</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>GRANDE FORTUNA_3EXG3</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>GREAT AMITY.tif</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>GREAT AMITY_VRAF7</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>GREAT COSMOS.pdf</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>GREAT COSMOS_VRQB5</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>GREAT HARMONY.tif</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>GREAT HARMONY_VRYT9</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>GREAT KALI.tif</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>GREAT KALI_AVBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>GREAT MORNING.tif</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>GREAT MORNING_VRAF5</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>GREAT OCEAN 19.pdf</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>GREAT OCEAN_3FDA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>GREAT OCEAN.pdf</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>GREAT OCEAN_3FDA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>GREAT OCEAN.tif</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>GREAT OCEAN_3FDA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>GREAT PRAISE.tif</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>GREAT PRAISE_VRFS5</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>GREBE BULKER (2).tif</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>GREBE BULKER_V7TY4</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>GREBE BULKER.tif</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>GREBE BULKER_V7TY4</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>GREEN PINE.tif</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>GREEN PINE_9V8389</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>GREENERY SEA.tif</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>GREENERY SEA_3EXC9</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>GREENTEC.tif</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>GREENTEC_VRDQ4</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>GRETA(1).tif</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>GRETA_C6TS7</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>GRETA.tif</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>GRETA_C6TS7</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>GRIGORPAN (C).tif</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>GRIGORPAN_9HIU8</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>GRIGORPAN.tif</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>GRIGORPAN_9HIU8</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>GS NIKE.tif</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>GS NIKE_HP-5332</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>GUANG DA.tif</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>GUANG DA_3EYN4</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>GUANG HUA 16.tif</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>GUANG HUA 16_XUNU8</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>GUANG HUA 8.tif</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>GUANG HUA 8_V3RY7</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>GUANG HUA 9-CREW.tif</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>GUANG HUA 9_T3KB2</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>GUANG HUA 9.tif</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>GUANG HUA 9_T3KB2</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>GUANG HUA8.tif</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>GUANG HUA 8_V3RY7</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>GUANGZHOU STAR.pdf</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>GUANGZHOU STAR_HOHW</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>GUANGZHOU STAR.tif</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>GUANGZHOU STAR_HOHW</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>GUARDIAN SHIP.tif</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>GUARDIAN SHIP_V7QD7</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>GULF AHMADI.tif</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>GULF AHMADI_V7GD7</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>GULF SIEB.tif</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>GULF SIEB_3FOF9</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>GULLWING 19.pdf</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>GULLWING _9HA3199</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>GULLWING.pdf</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>GULLWING _9HA3199</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>GUO SHUN 12.tif</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>GUO SHUN 12_3FJO4</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>GUO SHUN 13.tif</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>GUO SHUN 13_3FJT5</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>GUO SHUN9.tif</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>GUO SHUN 9_V3UN8</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>GUO TOU 106.tif</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>GUO TOU 106_BIBI3</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>GUOHONG.tif</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>GUO HONG_V3LW</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>GUOSHUN 15.tif</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>GUO SHUN 15_4LHH2</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>GUOSHUN 16.tif</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>GUO SHUN 16_4LH12</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>GUOXING 2.tif</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>GUO XING 2_V3HX</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>GW BEYCHEVELLE.tif</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>GW BEYCHEVELLE_3FZS6</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>K.PLUTO.tif</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>PLUTO_D7PT</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>KEUM YANG 1 (2020).pdf</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>KEUMYANG 1_D8GY</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>KEUM YANG 6 (2020).pdf</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>KEUM YANG 6_D7SU</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>KEUMYANG 1.pdf</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>KEUMYANG 1_D8GY</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>KEUMYANG 6.tif</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>KEUM YANG 6_D7SU</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>KEUMYANG7.tif</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>KEUMYANG 7_D7SW</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>KWANGYANG 12(C).tif</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>KWANGYANG 12_DSPW3</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>KWANGYANG 12.tif</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>KWANGYANG 12_DSPW3</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>KWANGYANG HARVEST.pdf</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>KWANGYANG HARVEST_D7UE</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>LOW CARBON(21.04).pdf</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>LOW CARBON_D9QF</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>PLUTO.pdf</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>PLUTO_D7PT</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>SEA ATHENA.tif</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>ATHENA_A8UQ7</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>SUN EASTERN (2020).pdf</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>SUN EASTERN_D7BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>VOGE FIESTA.tif</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>FIESTA_A8MV5</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>WAFFLE RACER.tif</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>WAFFLE RACER_V7LG7</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>WESTERN MAPLE(C).tif</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>WESTERN MAPLE_VRGU9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>W REN.tif</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>W REN_V7PI7</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>WAKABA.pdf</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>WAKABA_3FBA5</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>WAN DA 8.tif</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>WAN DA 8_XUJC5</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>WAN TONG 18.tif</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>WAN TONG 18_BCKC</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>WARISA NAREE.tif</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>WARISA NAREE_HSRW</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>WARIYA NAREE.tif</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>WARIYA NAREE_</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>WAVE FRIEND.tif</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>WAVE FRIEND_VRGL8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>WEAL POS.tif</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>WEAL POS_DSNS6</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>WEALTHY POS (crew).tif</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>WEALTHY POS_DSNU3</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>WEALTHY POS.tif</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>WEALTHY POS_DSNU3</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>WEAVER ARROW 20161209.tif</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>WEAVER ARROW_C6PG5</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>WEAVER ARROW.tif</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>WEAVER ARROW_C6PG5</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>WEI LONG.tif</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>WEI LONG_V3NT5</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>WEN CHENG.tif</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>WEN CHENG_T3NW</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>WEN PENG.TIF</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>WEN PENG_T3KR</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>WEN SHUN.pdf</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>WEN SHUN_5VHD6</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>WEN XIANG.tif</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>WEN XIANG_3FRR4</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>WENSHAN.tif</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>WEN SHAN_XUCS3</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>WEST FORTUNE(1).tif</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>WEST FORTUNE_3FJY2</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>WEST FORTUNE.tif</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>WEST FORTUNE_3FJY2</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>WESTERN ALBERTITO.tif</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>WESTERN ALBERTITO_V7XA4</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>WESTERN BALTIC.tif</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>WESTERN BALTIC_DUMF</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>WESTERN CARRIER.tif</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>WESTERN CARRIER_V2DL5</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>WESTERN CORPENHAGEN.tif</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>WESTERN CORPENHAGEN_VRLM7</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>WESTERN MAPLE(P).tif</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>WESTERN MAPLE_VRGU9</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>WESTERN MAPLE-CREW.tif</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>WESTERN MAPLE_VRGU9</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>WESTERN MAPLE-PARTI.tif</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>WESTERN MAPLE_VRGU9</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>WESTERN OSLO.pdf</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>WESTERN OSLO_DUKR</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>WESTERN PARIS.tif</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>WESTERN PARIS_DUHR</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>WESTERN STAVANGER.tif</t>
+        </is>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>WESTERN STAVANGER_LALN7</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>WHITE DIAMOND.tif</t>
+        </is>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>WHITE DIAMOND_A8LK6</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>WHITE TOKIO.tif</t>
+        </is>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>WHITE TOKIO_3ERF4</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>WIDAR (2).tif</t>
+        </is>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>WIDAR_A8WH7</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>WIDAR.tif</t>
+        </is>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>WIDAR_A8WH7</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>WING SAIL.tif</t>
+        </is>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>WING SAIL_V7TM8</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>WIZ SKY.tif</t>
+        </is>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>WIZ SKY_D8BN</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>WOOHYUN GREEN 20170118.tif</t>
+        </is>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>WOOHYUN GREEN_DSRA9</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>WOOHYUN HAEMIL.tif</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>WOOHYUN HAEMIL_DSQK2</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>WOOYANG DANDY (2020).pdf</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>WOOYANG DANDY_D7WD</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>WOOYANG DANDY(C).tif</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>WOOYANG DANDY_D7WD</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>WOOYANG GLORY (2020).pdf</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>WOOYANG GLORY_D7EB</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>WP BRAVE 19.pdf</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>WP BRAVE_V7HD4</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>WP BRAVE.pdf</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>WP BRAVE_V7HD4</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>WU CHANG HAI.tif</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>CHANG HAI_BUUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>WY ACE.tif</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>WY ACE_3EOZ9</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>WY FRIEND.tif</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>WY FRIEND_DSOM5</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>WY LEADER.tif</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>WY LEADER_DSPJ4</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>WY STERLING C(NEW)0525.tif</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>WY STERLING_3EXG8</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>WY STERLING.tif</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>WY STERLING_3EXG8</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>WY VICTORY(14.11.27).tif</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>WY VICTORY_3FRM8</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>WY VICTORY.tif</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>WY VICTORY_3FRM8</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>XI CHANG HAI.tif</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>CHANG HAI_BUUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>XU CHANG HAI.tif</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>CHANG HAI_BUUM</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>YANGTZE PIONEER.tif</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>YANGTZE PIONEER_9V9147</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>YASA KAPTAN ERBIL.tif</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>ASAKA_D7BR</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>ZENITH ELITE (2).tif</t>
+        </is>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>ZENITH ELITE_3EZU4</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>ZENITH ELITE 20,04.pdf</t>
+        </is>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>ZENITH ELITE_3EZU4</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>ZENITH ELITE.tif</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>ZENITH ELITE_3EZU4</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>ZENITH ORION 2.tif</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>ZENITH ORION_DSOZ6</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>ZENITH ORION.tif</t>
+        </is>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>ZENITH ORION_DSOZ6</t>
         </is>
       </c>
     </row>
